--- a/output/淘宝群-群营销消息.xlsx
+++ b/output/淘宝群-群营销消息.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>营销正文</t>
   </si>
@@ -41,66 +41,89 @@
     <t>群发时间</t>
   </si>
   <si>
-    <t>"🔥 边缝夏第三波来袭！4月14日晚7:00，直播不见不散！提前预览，让你先睹为快！"https://shop58053041.taobao.com/
+    <t>"4月23日晚7:00，边缝夏4波直播上新！准备好抢购你的心头好！"https://shop58053041.taobao.com/
 会员领券,提前准备-&gt; https://market.m.taobao.com/app/sj/member-center-rax/pages/pages_index_index?wh_weex=true&amp;source=ShopSelfUse&amp;sellerId=232107310</t>
   </si>
   <si>
     <t>文本</t>
   </si>
   <si>
-    <t>2025-04-12</t>
-  </si>
-  <si>
-    <t>17:30:00</t>
-  </si>
-  <si>
-    <t>"🎉 边缝夏3波新品即将上线！4月14日晚7:00直播首发，提前预览，精彩不容错过！"https://shop58053041.taobao.com/
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>17:02:00</t>
+  </si>
+  <si>
+    <t>"重磅来袭！边缝夏4波，4月23日晚7:00直播不见不散！提前预览，先睹为快！"https://shop58053041.taobao.com/
 会员领券,提前准备-&gt; https://market.m.taobao.com/app/sj/member-center-rax/pages/pages_index_index?wh_weex=true&amp;source=ShopSelfUse&amp;sellerId=232107310</t>
   </si>
   <si>
     <t>21:01:00</t>
   </si>
   <si>
-    <t>"🤫 边缝夏3波神秘新品，4月14日晚7:00直播揭晓！提前预览，解锁夏日时尚密码！"https://shop58053041.taobao.com/
+    <t>"边缝夏4波，4月23日晚7:00直播首发！限量款等你来抢！"https://shop58053041.taobao.com/
 会员领券,提前准备-&gt; https://market.m.taobao.com/app/sj/member-center-rax/pages/pages_index_index?wh_weex=true&amp;source=ShopSelfUse&amp;sellerId=232107310</t>
   </si>
   <si>
-    <t>2025-04-13</t>
+    <t>2025-04-20</t>
   </si>
   <si>
     <t>09:04:00</t>
   </si>
   <si>
-    <t>"💣 边缝夏3波重磅来袭！4月14日晚7:00直播，准备好抢购了吗？提前预览，让你抢占先机！"https://shop58053041.taobao.com/
+    <t>"错过等一年！边缝夏4波，4月23日晚7:00直播上新，不容错过！"https://shop58053041.taobao.com/
 会员领券,提前准备-&gt; https://market.m.taobao.com/app/sj/member-center-rax/pages/pages_index_index?wh_weex=true&amp;source=ShopSelfUse&amp;sellerId=232107310</t>
   </si>
   <si>
     <t>17:03:00</t>
   </si>
   <si>
-    <t>"🌸 春日好物，夏日穿搭！边缝夏3波，4月14日晚7:00直播上新，提前预览，遇见你的心动！"https://shop58053041.taobao.com/
+    <t>"预告：边缝夏4波，4月23日晚7:00直播震撼来袭！"https://shop58053041.taobao.com/
 会员领券,提前准备-&gt; https://market.m.taobao.com/app/sj/member-center-rax/pages/pages_index_index?wh_weex=true&amp;source=ShopSelfUse&amp;sellerId=232107310</t>
   </si>
   <si>
     <t>21:02:00</t>
   </si>
   <si>
-    <t>"🌈  色彩斑斓，夏日无限！边缝夏3波，4月14日晚7:00直播，提前预览，开启你的夏日之旅！"https://shop58053041.taobao.com/
+    <t>"尖叫预警！边缝夏4波，4月23日晚7:00直播，等你解锁夏日新风尚！"https://shop58053041.taobao.com/
 会员领券,提前准备-&gt; https://market.m.taobao.com/app/sj/member-center-rax/pages/pages_index_index?wh_weex=true&amp;source=ShopSelfUse&amp;sellerId=232107310</t>
   </si>
   <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
-    <t>"☀️  夏日必备单品，尽在边缝夏3波！4月14日晚7:00直播，提前预览，解锁夏日时尚！"https://shop58053041.taobao.com/
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>"锁定4月23日晚7:00！边缝夏4波直播上新，精彩不容错过！"https://shop58053041.taobao.com/
 会员领券,提前准备-&gt; https://market.m.taobao.com/app/sj/member-center-rax/pages/pages_index_index?wh_weex=true&amp;source=ShopSelfUse&amp;sellerId=232107310</t>
   </si>
   <si>
-    <t>"💖  精致女孩的夏日衣橱，边缝夏3波为你打造！4月14日晚7:00直播上新，提前预览，遇见最美的自己！"https://shop58053041.taobao.com/
+    <t>"边缝夏4波新品来啦！4月23日晚7:00直播首秀，等你一起见证！"https://shop58053041.taobao.com/
 会员领券,提前准备-&gt; https://market.m.taobao.com/app/sj/member-center-rax/pages/pages_index_index?wh_weex=true&amp;source=ShopSelfUse&amp;sellerId=232107310</t>
   </si>
   <si>
-    <t>19:02:00</t>
+    <t>"4月23日晚7:00，边缝夏4波直播上新，解锁夏日时尚新密码！"https://shop58053041.taobao.com/
+会员领券,提前准备-&gt; https://market.m.taobao.com/app/sj/member-center-rax/pages/pages_index_index?wh_weex=true&amp;source=ShopSelfUse&amp;sellerId=232107310</t>
+  </si>
+  <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
+    <t>"夏日必备单品！边缝夏4波，4月23日晚7:00直播，不见不散！"https://shop58053041.taobao.com/
+会员领券,提前准备-&gt; https://market.m.taobao.com/app/sj/member-center-rax/pages/pages_index_index?wh_weex=true&amp;source=ShopSelfUse&amp;sellerId=232107310</t>
+  </si>
+  <si>
+    <t>"边缝夏4波直播预告：4月23日晚7:00，精彩纷呈，等你来看！"https://shop58053041.taobao.com/
+会员领券,提前准备-&gt; https://market.m.taobao.com/app/sj/member-center-rax/pages/pages_index_index?wh_weex=true&amp;source=ShopSelfUse&amp;sellerId=232107310</t>
+  </si>
+  <si>
+    <t>"提前剧透！边缝夏4波，4月23日晚7:00直播上新，准备好你的钱包！"https://shop58053041.taobao.com/
+会员领券,提前准备-&gt; https://market.m.taobao.com/app/sj/member-center-rax/pages/pages_index_index?wh_weex=true&amp;source=ShopSelfUse&amp;sellerId=232107310</t>
+  </si>
+  <si>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>"边缝夏4波，4月23日晚7:00，直播带你开启夏日时尚之旅！"https://shop58053041.taobao.com/
+会员领券,提前准备-&gt; https://market.m.taobao.com/app/sj/member-center-rax/pages/pages_index_index?wh_weex=true&amp;source=ShopSelfUse&amp;sellerId=232107310</t>
   </si>
 </sst>
 </file>
@@ -743,12 +766,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1095,16 +1117,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="87.375" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
+    <col min="1" max="1" width="68.875" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1131,7 +1153,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1145,7 +1167,7 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1159,7 +1181,7 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1173,7 +1195,7 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1187,7 +1209,7 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1201,7 +1223,7 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1215,7 +1237,7 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1229,8 +1251,78 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
